--- a/我的创作/财务/证券投资/股票/财务报表分析系统/基本面分析.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/基本面分析.xlsx
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
